--- a/data/trans_camb/Q45B_R-Edad-trans_camb.xlsx
+++ b/data/trans_camb/Q45B_R-Edad-trans_camb.xlsx
@@ -639,32 +639,32 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-0,64; 3,7</t>
+          <t>-1,04; 3,34</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-2,82; 0,66</t>
+          <t>-2,99; 0,48</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-6,51; 1,82</t>
+          <t>-6,26; 1,61</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-10,44; -3,09</t>
+          <t>-10,38; -3,17</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-2,87; 1,79</t>
+          <t>-2,75; 2,05</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-6,07; -1,94</t>
+          <t>-6,03; -1,79</t>
         </is>
       </c>
     </row>
@@ -715,32 +715,32 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-27,99; 295,32</t>
+          <t>-40,2; 231,48</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-85,24; 75,76</t>
+          <t>-87,12; 63,36</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-45,56; 18,93</t>
+          <t>-43,88; 16,57</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-72,17; -29,57</t>
+          <t>-72,39; -30,09</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-35,34; 30,1</t>
+          <t>-33,55; 34,99</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-69,57; -27,4</t>
+          <t>-71,23; -29,06</t>
         </is>
       </c>
     </row>
@@ -795,32 +795,32 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-2,33; 1,9</t>
+          <t>-2,31; 1,9</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-3,11; 0,76</t>
+          <t>-3,08; 0,69</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-5,17; 3,79</t>
+          <t>-5,36; 3,54</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-13,89; -6,33</t>
+          <t>-14,09; -6,43</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-2,51; 2,34</t>
+          <t>-2,47; 2,39</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-7,19; -2,89</t>
+          <t>-7,09; -2,92</t>
         </is>
       </c>
     </row>
@@ -871,32 +871,32 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-47,43; 67,25</t>
+          <t>-48,77; 75,29</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-67,05; 32,73</t>
+          <t>-65,9; 33,28</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-24,53; 22,35</t>
+          <t>-25,26; 20,4</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-66,19; -37,42</t>
+          <t>-67,22; -38,64</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-21,66; 25,47</t>
+          <t>-21,55; 26,62</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-61,47; -30,79</t>
+          <t>-60,64; -30,52</t>
         </is>
       </c>
     </row>
@@ -951,32 +951,32 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-0,76; 2,36</t>
+          <t>-0,68; 2,66</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-2,85; -0,35</t>
+          <t>-2,86; -0,42</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-2,12; 3,46</t>
+          <t>-2,1; 3,8</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-5,51; -0,63</t>
+          <t>-5,54; -0,78</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-0,76; 2,51</t>
+          <t>-1,03; 2,46</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-3,97; -1,17</t>
+          <t>-3,74; -0,99</t>
         </is>
       </c>
     </row>
@@ -1027,32 +1027,32 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-33,8; 172,66</t>
+          <t>-29,19; 210,1</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-93,58; -19,21</t>
+          <t>-93,25; -14,41</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-26,3; 60,96</t>
+          <t>-25,31; 67,22</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-65,99; -9,93</t>
+          <t>-65,08; -9,23</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-14,32; 67,45</t>
+          <t>-19,0; 62,09</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-71,14; -29,3</t>
+          <t>-69,56; -25,68</t>
         </is>
       </c>
     </row>
@@ -1107,32 +1107,32 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-0,14; 3,44</t>
+          <t>-0,23; 3,67</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-2,1; 0,44</t>
+          <t>-2,16; 0,51</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-2,52; 2,74</t>
+          <t>-2,6; 2,77</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-4,35; 0,52</t>
+          <t>-4,43; 0,4</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-0,81; 2,39</t>
+          <t>-0,55; 2,57</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-2,67; 0,08</t>
+          <t>-2,52; 0,06</t>
         </is>
       </c>
     </row>
@@ -1183,32 +1183,32 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-25,88; 631,14</t>
+          <t>-23,58; 730,23</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 125,08</t>
+          <t>-91,28; 167,2</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-41,52; 77,02</t>
+          <t>-41,28; 78,57</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-68,39; 19,1</t>
+          <t>-65,34; 15,62</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-21,22; 98,03</t>
+          <t>-16,42; 111,63</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-66,65; 4,31</t>
+          <t>-64,81; 6,64</t>
         </is>
       </c>
     </row>
@@ -1263,32 +1263,32 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-2,39; 0,82</t>
+          <t>-2,43; 0,99</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-3,47; -0,56</t>
+          <t>-3,32; -0,67</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-2,31; 1,6</t>
+          <t>-2,15; 1,75</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-2,73; 1,29</t>
+          <t>-2,65; 1,12</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-1,75; 0,78</t>
+          <t>-1,79; 0,81</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-2,33; 0,0</t>
+          <t>-2,28; -0,01</t>
         </is>
       </c>
     </row>
@@ -1339,7 +1339,7 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-88,35; 190,85</t>
+          <t>-88,47; 220,19</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
@@ -1349,22 +1349,22 @@
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-69,59; 153,58</t>
+          <t>-69,73; 187,91</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>-77,29; 112,88</t>
+          <t>-81,19; 99,88</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-66,97; 70,66</t>
+          <t>-68,71; 75,06</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-86,41; 8,46</t>
+          <t>-84,46; 6,23</t>
         </is>
       </c>
     </row>
@@ -1419,32 +1419,32 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>-0,33; 1,36</t>
+          <t>-0,33; 1,48</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>-0,43; 1,18</t>
+          <t>-0,55; 1,13</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>-0,22; 2,65</t>
+          <t>-0,26; 2,66</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>-2,11; -0,31</t>
+          <t>-2,11; -0,32</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>0,06; 1,87</t>
+          <t>0,01; 1,78</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>-1,11; 0,09</t>
+          <t>-1,13; 0,07</t>
         </is>
       </c>
     </row>
@@ -1495,7 +1495,7 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>-100,0; —</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
@@ -1505,22 +1505,22 @@
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>-20,28; 421,81</t>
+          <t>-24,46; 419,0</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>-100,0; -2,06</t>
+          <t>-100,0; 82,6</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>-9,28; 393,29</t>
+          <t>-7,32; 325,85</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>-87,9; 39,15</t>
+          <t>-89,62; 35,48</t>
         </is>
       </c>
     </row>
@@ -1575,32 +1575,32 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>-0,18; 1,25</t>
+          <t>-0,27; 1,26</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>-1,67; -0,52</t>
+          <t>-1,71; -0,49</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>-1,63; 0,88</t>
+          <t>-1,67; 0,81</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>-5,3; -3,3</t>
+          <t>-5,41; -3,25</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>-0,81; 0,77</t>
+          <t>-0,71; 0,82</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>-3,36; -2,06</t>
+          <t>-3,35; -2,04</t>
         </is>
       </c>
     </row>
@@ -1651,32 +1651,32 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>-8,07; 74,54</t>
+          <t>-12,46; 69,62</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>-69,15; -30,29</t>
+          <t>-70,57; -27,62</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>-19,29; 12,49</t>
+          <t>-19,99; 11,45</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>-62,81; -45,11</t>
+          <t>-63,93; -45,53</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>-14,77; 16,69</t>
+          <t>-13,38; 18,3</t>
         </is>
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>-62,65; -45,22</t>
+          <t>-62,32; -43,77</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/Q45B_R-Edad-trans_camb.xlsx
+++ b/data/trans_camb/Q45B_R-Edad-trans_camb.xlsx
@@ -554,7 +554,7 @@
       </c>
       <c r="D2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="E2" s="3" t="inlineStr">
@@ -564,7 +564,7 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="G2" s="3" t="inlineStr">
@@ -574,7 +574,7 @@
       </c>
       <c r="H2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
     </row>
@@ -639,32 +639,32 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-1,04; 3,34</t>
+          <t>-0,79; 3,65</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-2,99; 0,48</t>
+          <t>-2,79; 0,73</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-6,26; 1,61</t>
+          <t>-6,45; 1,82</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-10,38; -3,17</t>
+          <t>-10,56; -3,36</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-2,75; 2,05</t>
+          <t>-2,67; 1,79</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-6,03; -1,79</t>
+          <t>-5,63; -1,82</t>
         </is>
       </c>
     </row>
@@ -715,32 +715,32 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-40,2; 231,48</t>
+          <t>-32,1; 272,54</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-87,12; 63,36</t>
+          <t>-85,79; 80,21</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-43,88; 16,57</t>
+          <t>-44,8; 16,2</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-72,39; -30,09</t>
+          <t>-71,76; -29,81</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-33,55; 34,99</t>
+          <t>-32,57; 28,68</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-71,23; -29,06</t>
+          <t>-69,54; -28,94</t>
         </is>
       </c>
     </row>
@@ -795,32 +795,32 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-2,31; 1,9</t>
+          <t>-2,22; 2,06</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-3,08; 0,69</t>
+          <t>-2,98; 0,7</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-5,36; 3,54</t>
+          <t>-4,75; 3,91</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-14,09; -6,43</t>
+          <t>-13,91; -6,14</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-2,47; 2,39</t>
+          <t>-2,54; 2,34</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-7,09; -2,92</t>
+          <t>-7,16; -2,86</t>
         </is>
       </c>
     </row>
@@ -871,32 +871,32 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-48,77; 75,29</t>
+          <t>-48,01; 73,88</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-65,9; 33,28</t>
+          <t>-65,44; 28,78</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-25,26; 20,4</t>
+          <t>-23,69; 24,24</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-67,22; -38,64</t>
+          <t>-66,64; -36,49</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-21,55; 26,62</t>
+          <t>-21,93; 25,94</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-60,64; -30,52</t>
+          <t>-61,62; -30,39</t>
         </is>
       </c>
     </row>
@@ -951,32 +951,32 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-0,68; 2,66</t>
+          <t>-0,88; 2,54</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-2,86; -0,42</t>
+          <t>-2,83; -0,46</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-2,1; 3,8</t>
+          <t>-2,03; 3,58</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-5,54; -0,78</t>
+          <t>-5,63; -0,79</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-1,03; 2,46</t>
+          <t>-0,91; 2,52</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-3,74; -0,99</t>
+          <t>-3,73; -0,99</t>
         </is>
       </c>
     </row>
@@ -1027,32 +1027,32 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-29,19; 210,1</t>
+          <t>-30,95; 179,99</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-93,25; -14,41</t>
+          <t>-93,11; -15,7</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-25,31; 67,22</t>
+          <t>-24,68; 68,22</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-65,08; -9,23</t>
+          <t>-67,16; -11,89</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-19,0; 62,09</t>
+          <t>-19,42; 64,09</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-69,56; -25,68</t>
+          <t>-67,82; -22,86</t>
         </is>
       </c>
     </row>
@@ -1107,32 +1107,32 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-0,23; 3,67</t>
+          <t>-0,15; 3,37</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-2,16; 0,51</t>
+          <t>-2,12; 0,64</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-2,6; 2,77</t>
+          <t>-2,48; 2,77</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-4,43; 0,4</t>
+          <t>-4,37; 0,34</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-0,55; 2,57</t>
+          <t>-0,79; 2,56</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-2,52; 0,06</t>
+          <t>-2,62; 0,09</t>
         </is>
       </c>
     </row>
@@ -1183,32 +1183,32 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-23,58; 730,23</t>
+          <t>-22,09; 691,86</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-91,28; 167,2</t>
+          <t>-90,86; 279,02</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-41,28; 78,57</t>
+          <t>-41,18; 80,37</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-65,34; 15,62</t>
+          <t>-66,74; 12,52</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-16,42; 111,63</t>
+          <t>-21,89; 107,77</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-64,81; 6,64</t>
+          <t>-64,74; 6,85</t>
         </is>
       </c>
     </row>
@@ -1263,32 +1263,32 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-2,43; 0,99</t>
+          <t>-2,74; 0,86</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-3,32; -0,67</t>
+          <t>-3,66; -0,71</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-2,15; 1,75</t>
+          <t>-2,32; 1,55</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-2,65; 1,12</t>
+          <t>-2,61; 1,22</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-1,79; 0,81</t>
+          <t>-1,77; 0,83</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-2,28; -0,01</t>
+          <t>-2,52; 0,03</t>
         </is>
       </c>
     </row>
@@ -1339,7 +1339,7 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-88,47; 220,19</t>
+          <t>-91,47; 142,78</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
@@ -1349,22 +1349,22 @@
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-69,73; 187,91</t>
+          <t>-75,26; 155,08</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>-81,19; 99,88</t>
+          <t>-77,17; 110,55</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-68,71; 75,06</t>
+          <t>-65,49; 79,46</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-84,46; 6,23</t>
+          <t>-86,46; 9,17</t>
         </is>
       </c>
     </row>
@@ -1419,32 +1419,32 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>-0,33; 1,48</t>
+          <t>-0,37; 1,38</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>-0,55; 1,13</t>
+          <t>-0,52; 1,12</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>-0,26; 2,66</t>
+          <t>-0,18; 2,82</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>-2,11; -0,32</t>
+          <t>-1,95; -0,41</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>0,01; 1,78</t>
+          <t>-0,07; 1,78</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>-1,13; 0,07</t>
+          <t>-1,14; 0,09</t>
         </is>
       </c>
     </row>
@@ -1505,22 +1505,22 @@
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>-24,46; 419,0</t>
+          <t>-22,2; 424,42</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 82,6</t>
+          <t>-100,0; -3,24</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>-7,32; 325,85</t>
+          <t>-13,35; 373,74</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>-89,62; 35,48</t>
+          <t>-89,42; 33,93</t>
         </is>
       </c>
     </row>
@@ -1575,32 +1575,32 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>-0,27; 1,26</t>
+          <t>-0,25; 1,25</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>-1,71; -0,49</t>
+          <t>-1,66; -0,51</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>-1,67; 0,81</t>
+          <t>-1,6; 0,95</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>-5,41; -3,25</t>
+          <t>-5,28; -3,08</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>-0,71; 0,82</t>
+          <t>-0,73; 0,83</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>-3,35; -2,04</t>
+          <t>-3,34; -2,12</t>
         </is>
       </c>
     </row>
@@ -1651,32 +1651,32 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>-12,46; 69,62</t>
+          <t>-11,5; 75,96</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>-70,57; -27,62</t>
+          <t>-70,33; -28,53</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>-19,99; 11,45</t>
+          <t>-18,5; 13,65</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>-63,93; -45,53</t>
+          <t>-62,47; -44,12</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>-13,38; 18,3</t>
+          <t>-13,81; 18,06</t>
         </is>
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>-62,32; -43,77</t>
+          <t>-61,79; -45,64</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/Q45B_R-Edad-trans_camb.xlsx
+++ b/data/trans_camb/Q45B_R-Edad-trans_camb.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal cambio" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Cambio" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -639,32 +639,32 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-0,79; 3,65</t>
+          <t>-0,64; 3,7</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-2,79; 0,73</t>
+          <t>-2,82; 0,66</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-6,45; 1,82</t>
+          <t>-6,51; 1,82</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-10,56; -3,36</t>
+          <t>-10,44; -3,09</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-2,67; 1,79</t>
+          <t>-2,87; 1,79</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-5,63; -1,82</t>
+          <t>-6,07; -1,94</t>
         </is>
       </c>
     </row>
@@ -715,32 +715,32 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-32,1; 272,54</t>
+          <t>-27,99; 295,32</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-85,79; 80,21</t>
+          <t>-85,24; 75,76</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-44,8; 16,2</t>
+          <t>-45,56; 18,93</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-71,76; -29,81</t>
+          <t>-72,17; -29,57</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-32,57; 28,68</t>
+          <t>-35,34; 30,1</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-69,54; -28,94</t>
+          <t>-69,57; -27,4</t>
         </is>
       </c>
     </row>
@@ -795,32 +795,32 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-2,22; 2,06</t>
+          <t>-2,33; 1,9</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-2,98; 0,7</t>
+          <t>-3,11; 0,76</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-4,75; 3,91</t>
+          <t>-5,17; 3,79</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-13,91; -6,14</t>
+          <t>-13,89; -6,33</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-2,54; 2,34</t>
+          <t>-2,51; 2,34</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-7,16; -2,86</t>
+          <t>-7,19; -2,89</t>
         </is>
       </c>
     </row>
@@ -871,32 +871,32 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-48,01; 73,88</t>
+          <t>-47,43; 67,25</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-65,44; 28,78</t>
+          <t>-67,05; 32,73</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-23,69; 24,24</t>
+          <t>-24,53; 22,35</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-66,64; -36,49</t>
+          <t>-66,19; -37,42</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-21,93; 25,94</t>
+          <t>-21,66; 25,47</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-61,62; -30,39</t>
+          <t>-61,47; -30,79</t>
         </is>
       </c>
     </row>
@@ -951,32 +951,32 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-0,88; 2,54</t>
+          <t>-0,76; 2,36</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-2,83; -0,46</t>
+          <t>-2,85; -0,35</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-2,03; 3,58</t>
+          <t>-2,12; 3,46</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-5,63; -0,79</t>
+          <t>-5,51; -0,63</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-0,91; 2,52</t>
+          <t>-0,76; 2,51</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-3,73; -0,99</t>
+          <t>-3,97; -1,17</t>
         </is>
       </c>
     </row>
@@ -1027,32 +1027,32 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-30,95; 179,99</t>
+          <t>-33,8; 172,66</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-93,11; -15,7</t>
+          <t>-93,58; -19,21</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-24,68; 68,22</t>
+          <t>-26,3; 60,96</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-67,16; -11,89</t>
+          <t>-65,99; -9,93</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-19,42; 64,09</t>
+          <t>-14,32; 67,45</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-67,82; -22,86</t>
+          <t>-71,14; -29,3</t>
         </is>
       </c>
     </row>
@@ -1107,32 +1107,32 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-0,15; 3,37</t>
+          <t>-0,14; 3,44</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-2,12; 0,64</t>
+          <t>-2,1; 0,44</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-2,48; 2,77</t>
+          <t>-2,52; 2,74</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-4,37; 0,34</t>
+          <t>-4,35; 0,52</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-0,79; 2,56</t>
+          <t>-0,81; 2,39</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-2,62; 0,09</t>
+          <t>-2,67; 0,08</t>
         </is>
       </c>
     </row>
@@ -1183,32 +1183,32 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-22,09; 691,86</t>
+          <t>-25,88; 631,14</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-90,86; 279,02</t>
+          <t>-100,0; 125,08</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-41,18; 80,37</t>
+          <t>-41,52; 77,02</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-66,74; 12,52</t>
+          <t>-68,39; 19,1</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-21,89; 107,77</t>
+          <t>-21,22; 98,03</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-64,74; 6,85</t>
+          <t>-66,65; 4,31</t>
         </is>
       </c>
     </row>
@@ -1263,32 +1263,32 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-2,74; 0,86</t>
+          <t>-2,39; 0,82</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-3,66; -0,71</t>
+          <t>-3,47; -0,56</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-2,32; 1,55</t>
+          <t>-2,31; 1,6</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-2,61; 1,22</t>
+          <t>-2,73; 1,29</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-1,77; 0,83</t>
+          <t>-1,75; 0,78</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-2,52; 0,03</t>
+          <t>-2,33; 0,0</t>
         </is>
       </c>
     </row>
@@ -1339,7 +1339,7 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-91,47; 142,78</t>
+          <t>-88,35; 190,85</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
@@ -1349,22 +1349,22 @@
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-75,26; 155,08</t>
+          <t>-69,59; 153,58</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>-77,17; 110,55</t>
+          <t>-77,29; 112,88</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-65,49; 79,46</t>
+          <t>-66,97; 70,66</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-86,46; 9,17</t>
+          <t>-86,41; 8,46</t>
         </is>
       </c>
     </row>
@@ -1419,32 +1419,32 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>-0,37; 1,38</t>
+          <t>-0,33; 1,36</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>-0,52; 1,12</t>
+          <t>-0,43; 1,18</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>-0,18; 2,82</t>
+          <t>-0,22; 2,65</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>-1,95; -0,41</t>
+          <t>-2,11; -0,31</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>-0,07; 1,78</t>
+          <t>0,06; 1,87</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>-1,14; 0,09</t>
+          <t>-1,11; 0,09</t>
         </is>
       </c>
     </row>
@@ -1495,32 +1495,32 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
+          <t>-100,0; —</t>
+        </is>
+      </c>
+      <c r="D27" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="D27" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>-22,2; 424,42</t>
+          <t>-20,28; 421,81</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>-100,0; -3,24</t>
+          <t>-100,0; -2,06</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>-13,35; 373,74</t>
+          <t>-9,28; 393,29</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>-89,42; 33,93</t>
+          <t>-87,9; 39,15</t>
         </is>
       </c>
     </row>
@@ -1575,32 +1575,32 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>-0,25; 1,25</t>
+          <t>-0,18; 1,25</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>-1,66; -0,51</t>
+          <t>-1,67; -0,52</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>-1,6; 0,95</t>
+          <t>-1,63; 0,88</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>-5,28; -3,08</t>
+          <t>-5,3; -3,3</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>-0,73; 0,83</t>
+          <t>-0,81; 0,77</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>-3,34; -2,12</t>
+          <t>-3,36; -2,06</t>
         </is>
       </c>
     </row>
@@ -1651,32 +1651,32 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>-11,5; 75,96</t>
+          <t>-8,07; 74,54</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>-70,33; -28,53</t>
+          <t>-69,15; -30,29</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>-18,5; 13,65</t>
+          <t>-19,29; 12,49</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>-62,47; -44,12</t>
+          <t>-62,81; -45,11</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>-13,81; 18,06</t>
+          <t>-14,77; 16,69</t>
         </is>
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>-61,79; -45,64</t>
+          <t>-62,65; -45,22</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/Q45B_R-Edad-trans_camb.xlsx
+++ b/data/trans_camb/Q45B_R-Edad-trans_camb.xlsx
@@ -497,7 +497,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H32"/>
+  <dimension ref="A1:H36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -591,7 +591,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>16/24</t>
+          <t>16-24</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -747,7 +747,7 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>25/34</t>
+          <t>25-34</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -903,7 +903,7 @@
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>35/44</t>
+          <t>35-44</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1059,7 +1059,7 @@
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>45/54</t>
+          <t>45-54</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1215,7 +1215,7 @@
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>55/64</t>
+          <t>55-64</t>
         </is>
       </c>
       <c r="B20" s="3" t="inlineStr">
@@ -1371,7 +1371,7 @@
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>65 y más</t>
+          <t>65-74</t>
         </is>
       </c>
       <c r="B24" s="3" t="inlineStr">
@@ -1381,32 +1381,32 @@
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>0,4</t>
+          <t>0,07</t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>0,3</t>
+          <t>0,55</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>1,17</t>
+          <t>0,73</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>-1,0</t>
+          <t>-1,36</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
         <is>
-          <t>0,84</t>
+          <t>0,42</t>
         </is>
       </c>
       <c r="H24" s="2" t="inlineStr">
         <is>
-          <t>-0,44</t>
+          <t>-0,47</t>
         </is>
       </c>
     </row>
@@ -1419,32 +1419,32 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>-0,33; 1,36</t>
+          <t>-1,18; 1,43</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>-0,43; 1,18</t>
+          <t>-0,86; 2,07</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>-0,22; 2,65</t>
+          <t>-1,27; 3,52</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>-2,11; -0,31</t>
+          <t>-3,44; -0,27</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>0,06; 1,87</t>
+          <t>-0,72; 2,02</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>-1,11; 0,09</t>
+          <t>-1,42; 0,51</t>
         </is>
       </c>
     </row>
@@ -1457,32 +1457,32 @@
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
-          <t>113,61%</t>
+          <t>12,02%</t>
         </is>
       </c>
       <c r="D26" s="2" t="inlineStr">
         <is>
-          <t>85,37%</t>
+          <t>91,04%</t>
         </is>
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>103,24%</t>
+          <t>44,99%</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>-88,42%</t>
+          <t>-83,36%</t>
         </is>
       </c>
       <c r="G26" s="2" t="inlineStr">
         <is>
-          <t>104,62%</t>
+          <t>36,15%</t>
         </is>
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>-55,4%</t>
+          <t>-40,56%</t>
         </is>
       </c>
     </row>
@@ -1495,7 +1495,7 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>-100,0; —</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
@@ -1505,29 +1505,29 @@
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>-20,28; 421,81</t>
+          <t>-67,31; 488,68</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>-100,0; -2,06</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>-9,28; 393,29</t>
+          <t>-53,9; 360,87</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>-87,9; 39,15</t>
+          <t>-88,75; 95,75</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>75 o más</t>
         </is>
       </c>
       <c r="B28" s="3" t="inlineStr">
@@ -1537,32 +1537,32 @@
       </c>
       <c r="C28" s="2" t="inlineStr">
         <is>
-          <t>0,49</t>
+          <t>0,85</t>
         </is>
       </c>
       <c r="D28" s="2" t="inlineStr">
         <is>
-          <t>-1,06</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="E28" s="2" t="inlineStr">
         <is>
-          <t>-0,39</t>
+          <t>1,63</t>
         </is>
       </c>
       <c r="F28" s="2" t="inlineStr">
         <is>
-          <t>-4,28</t>
+          <t>-0,63</t>
         </is>
       </c>
       <c r="G28" s="2" t="inlineStr">
         <is>
-          <t>0,05</t>
+          <t>1,32</t>
         </is>
       </c>
       <c r="H28" s="2" t="inlineStr">
         <is>
-          <t>-2,69</t>
+          <t>-0,38</t>
         </is>
       </c>
     </row>
@@ -1575,32 +1575,32 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>-0,18; 1,25</t>
+          <t>0,0; 3,27</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>-1,67; -0,52</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>-1,63; 0,88</t>
+          <t>0,01; 3,56</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>-5,3; -3,3</t>
+          <t>-2,16; 0,0</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>-0,81; 0,77</t>
+          <t>0,26; 2,59</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>-3,36; -2,06</t>
+          <t>-1,38; 0,0</t>
         </is>
       </c>
     </row>
@@ -1613,32 +1613,32 @@
       </c>
       <c r="C30" s="2" t="inlineStr">
         <is>
-          <t>24,63%</t>
+          <t>inf%</t>
         </is>
       </c>
       <c r="D30" s="2" t="inlineStr">
         <is>
-          <t>-52,93%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E30" s="2" t="inlineStr">
         <is>
-          <t>-4,97%</t>
+          <t>260,0%</t>
         </is>
       </c>
       <c r="F30" s="2" t="inlineStr">
         <is>
-          <t>-54,77%</t>
+          <t>-100,0%</t>
         </is>
       </c>
       <c r="G30" s="2" t="inlineStr">
         <is>
-          <t>1,1%</t>
+          <t>343,69%</t>
         </is>
       </c>
       <c r="H30" s="2" t="inlineStr">
         <is>
-          <t>-54,23%</t>
+          <t>-100,0%</t>
         </is>
       </c>
     </row>
@@ -1651,44 +1651,201 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="D31" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="E31" s="2" t="inlineStr">
+        <is>
+          <t>-50,71; —</t>
+        </is>
+      </c>
+      <c r="F31" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G31" s="2" t="inlineStr">
+        <is>
+          <t>-40,1; —</t>
+        </is>
+      </c>
+      <c r="H31" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B32" s="3" t="inlineStr">
+        <is>
+          <t>Cambio absoluto (puntos porcentuales)</t>
+        </is>
+      </c>
+      <c r="C32" s="2" t="inlineStr">
+        <is>
+          <t>0,49</t>
+        </is>
+      </c>
+      <c r="D32" s="2" t="inlineStr">
+        <is>
+          <t>-1,06</t>
+        </is>
+      </c>
+      <c r="E32" s="2" t="inlineStr">
+        <is>
+          <t>-0,39</t>
+        </is>
+      </c>
+      <c r="F32" s="2" t="inlineStr">
+        <is>
+          <t>-4,28</t>
+        </is>
+      </c>
+      <c r="G32" s="2" t="inlineStr">
+        <is>
+          <t>0,05</t>
+        </is>
+      </c>
+      <c r="H32" s="2" t="inlineStr">
+        <is>
+          <t>-2,69</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="n"/>
+      <c r="B33" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C33" s="2" t="inlineStr">
+        <is>
+          <t>-0,18; 1,25</t>
+        </is>
+      </c>
+      <c r="D33" s="2" t="inlineStr">
+        <is>
+          <t>-1,67; -0,52</t>
+        </is>
+      </c>
+      <c r="E33" s="2" t="inlineStr">
+        <is>
+          <t>-1,63; 0,88</t>
+        </is>
+      </c>
+      <c r="F33" s="2" t="inlineStr">
+        <is>
+          <t>-5,3; -3,3</t>
+        </is>
+      </c>
+      <c r="G33" s="2" t="inlineStr">
+        <is>
+          <t>-0,81; 0,77</t>
+        </is>
+      </c>
+      <c r="H33" s="2" t="inlineStr">
+        <is>
+          <t>-3,36; -2,06</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="n"/>
+      <c r="B34" s="3" t="inlineStr">
+        <is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C34" s="2" t="inlineStr">
+        <is>
+          <t>24,63%</t>
+        </is>
+      </c>
+      <c r="D34" s="2" t="inlineStr">
+        <is>
+          <t>-52,93%</t>
+        </is>
+      </c>
+      <c r="E34" s="2" t="inlineStr">
+        <is>
+          <t>-4,97%</t>
+        </is>
+      </c>
+      <c r="F34" s="2" t="inlineStr">
+        <is>
+          <t>-54,77%</t>
+        </is>
+      </c>
+      <c r="G34" s="2" t="inlineStr">
+        <is>
+          <t>1,1%</t>
+        </is>
+      </c>
+      <c r="H34" s="2" t="inlineStr">
+        <is>
+          <t>-54,23%</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="n"/>
+      <c r="B35" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C35" s="2" t="inlineStr">
+        <is>
           <t>-8,07; 74,54</t>
         </is>
       </c>
-      <c r="D31" s="2" t="inlineStr">
+      <c r="D35" s="2" t="inlineStr">
         <is>
           <t>-69,15; -30,29</t>
         </is>
       </c>
-      <c r="E31" s="2" t="inlineStr">
+      <c r="E35" s="2" t="inlineStr">
         <is>
           <t>-19,29; 12,49</t>
         </is>
       </c>
-      <c r="F31" s="2" t="inlineStr">
+      <c r="F35" s="2" t="inlineStr">
         <is>
           <t>-62,81; -45,11</t>
         </is>
       </c>
-      <c r="G31" s="2" t="inlineStr">
+      <c r="G35" s="2" t="inlineStr">
         <is>
           <t>-14,77; 16,69</t>
         </is>
       </c>
-      <c r="H31" s="2" t="inlineStr">
+      <c r="H35" s="2" t="inlineStr">
         <is>
           <t>-62,65; -45,22</t>
         </is>
       </c>
     </row>
-    <row r="32">
-      <c r="A32" t="inlineStr">
+    <row r="36">
+      <c r="A36" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
+    <mergeCell ref="A32:A35"/>
     <mergeCell ref="A4:A7"/>
     <mergeCell ref="A8:A11"/>
     <mergeCell ref="C1:D1"/>

--- a/data/trans_camb/Q45B_R-Edad-trans_camb.xlsx
+++ b/data/trans_camb/Q45B_R-Edad-trans_camb.xlsx
@@ -639,32 +639,32 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-0,64; 3,7</t>
+          <t>-1,11; 3,48</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-2,82; 0,66</t>
+          <t>-2,92; 0,64</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-6,51; 1,82</t>
+          <t>-6,29; 1,91</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-10,44; -3,09</t>
+          <t>-10,24; -3,11</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-2,87; 1,79</t>
+          <t>-3,18; 1,69</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-6,07; -1,94</t>
+          <t>-5,78; -1,88</t>
         </is>
       </c>
     </row>
@@ -715,32 +715,32 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-27,99; 295,32</t>
+          <t>-35,3; 257,8</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-85,24; 75,76</t>
+          <t>-86,46; 61,38</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-45,56; 18,93</t>
+          <t>-44,14; 18,36</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-72,17; -29,57</t>
+          <t>-72,35; -28,54</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-35,34; 30,1</t>
+          <t>-36,11; 28,89</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-69,57; -27,4</t>
+          <t>-69,16; -27,3</t>
         </is>
       </c>
     </row>
@@ -795,32 +795,32 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-2,33; 1,9</t>
+          <t>-2,23; 1,84</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-3,11; 0,76</t>
+          <t>-3,2; 0,65</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-5,17; 3,79</t>
+          <t>-5,0; 4,05</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-13,89; -6,33</t>
+          <t>-14,27; -6,21</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-2,51; 2,34</t>
+          <t>-2,52; 2,22</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-7,19; -2,89</t>
+          <t>-7,33; -2,87</t>
         </is>
       </c>
     </row>
@@ -871,32 +871,32 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-47,43; 67,25</t>
+          <t>-47,03; 71,47</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-67,05; 32,73</t>
+          <t>-66,53; 30,83</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-24,53; 22,35</t>
+          <t>-23,82; 24,13</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-66,19; -37,42</t>
+          <t>-67,43; -36,99</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-21,66; 25,47</t>
+          <t>-21,66; 23,51</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-61,47; -30,79</t>
+          <t>-61,26; -29,77</t>
         </is>
       </c>
     </row>
@@ -951,32 +951,32 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-0,76; 2,36</t>
+          <t>-0,88; 2,53</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-2,85; -0,35</t>
+          <t>-2,9; -0,34</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-2,12; 3,46</t>
+          <t>-1,89; 3,59</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-5,51; -0,63</t>
+          <t>-5,63; -0,77</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-0,76; 2,51</t>
+          <t>-0,8; 2,36</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-3,97; -1,17</t>
+          <t>-3,73; -1,08</t>
         </is>
       </c>
     </row>
@@ -1027,32 +1027,32 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-33,8; 172,66</t>
+          <t>-38,1; 182,13</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-93,58; -19,21</t>
+          <t>-93,05; -6,69</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-26,3; 60,96</t>
+          <t>-23,28; 64,2</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-65,99; -9,93</t>
+          <t>-67,33; -11,08</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-14,32; 67,45</t>
+          <t>-15,2; 62,82</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-71,14; -29,3</t>
+          <t>-68,81; -26,9</t>
         </is>
       </c>
     </row>
@@ -1107,32 +1107,32 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-0,14; 3,44</t>
+          <t>-0,0; 3,59</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-2,1; 0,44</t>
+          <t>-2,12; 0,46</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-2,52; 2,74</t>
+          <t>-2,82; 2,75</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-4,35; 0,52</t>
+          <t>-4,21; 0,59</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-0,81; 2,39</t>
+          <t>-0,74; 2,56</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-2,67; 0,08</t>
+          <t>-2,53; 0,08</t>
         </is>
       </c>
     </row>
@@ -1183,32 +1183,32 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-25,88; 631,14</t>
+          <t>-21,86; 737,63</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 125,08</t>
+          <t>-100,0; 124,28</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-41,52; 77,02</t>
+          <t>-45,22; 77,23</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-68,39; 19,1</t>
+          <t>-66,64; 21,96</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-21,22; 98,03</t>
+          <t>-21,22; 109,08</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-66,65; 4,31</t>
+          <t>-65,3; 4,7</t>
         </is>
       </c>
     </row>
@@ -1263,32 +1263,32 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-2,39; 0,82</t>
+          <t>-2,37; 0,82</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-3,47; -0,56</t>
+          <t>-3,68; -0,7</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-2,31; 1,6</t>
+          <t>-2,38; 1,7</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-2,73; 1,29</t>
+          <t>-2,54; 1,39</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-1,75; 0,78</t>
+          <t>-1,82; 0,77</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-2,33; 0,0</t>
+          <t>-2,44; 0,03</t>
         </is>
       </c>
     </row>
@@ -1339,7 +1339,7 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-88,35; 190,85</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
@@ -1349,22 +1349,22 @@
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-69,59; 153,58</t>
+          <t>-73,5; 169,01</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>-77,29; 112,88</t>
+          <t>-77,11; 172,21</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-66,97; 70,66</t>
+          <t>-66,32; 64,76</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-86,41; 8,46</t>
+          <t>-85,12; 13,62</t>
         </is>
       </c>
     </row>
@@ -1419,32 +1419,32 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>-1,18; 1,43</t>
+          <t>-0,93; 1,72</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>-0,86; 2,07</t>
+          <t>-0,84; 2,02</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>-1,27; 3,52</t>
+          <t>-1,4; 3,32</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>-3,44; -0,27</t>
+          <t>-2,96; -0,24</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>-0,72; 2,02</t>
+          <t>-0,84; 2,09</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>-1,42; 0,51</t>
+          <t>-1,49; 0,43</t>
         </is>
       </c>
     </row>
@@ -1505,7 +1505,7 @@
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>-67,31; 488,68</t>
+          <t>-64,09; 487,74</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
@@ -1515,12 +1515,12 @@
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>-53,9; 360,87</t>
+          <t>-54,82; 327,42</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>-88,75; 95,75</t>
+          <t>-84,56; 115,64</t>
         </is>
       </c>
     </row>
@@ -1575,7 +1575,7 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>0,0; 3,27</t>
+          <t>0,0; 2,59</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
@@ -1585,22 +1585,22 @@
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>0,01; 3,56</t>
+          <t>0,14; 3,82</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>-2,16; 0,0</t>
+          <t>-2,17; 0,0</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>0,26; 2,59</t>
+          <t>0,25; 2,51</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>-1,38; 0,0</t>
+          <t>-1,25; 0,0</t>
         </is>
       </c>
     </row>
@@ -1661,7 +1661,7 @@
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>-50,71; —</t>
+          <t>-36,73; —</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
@@ -1671,7 +1671,7 @@
       </c>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>-40,1; —</t>
+          <t>-50,1; —</t>
         </is>
       </c>
       <c r="H31" s="2" t="inlineStr">
@@ -1731,32 +1731,32 @@
       </c>
       <c r="C33" s="2" t="inlineStr">
         <is>
-          <t>-0,18; 1,25</t>
+          <t>-0,24; 1,26</t>
         </is>
       </c>
       <c r="D33" s="2" t="inlineStr">
         <is>
-          <t>-1,67; -0,52</t>
+          <t>-1,73; -0,51</t>
         </is>
       </c>
       <c r="E33" s="2" t="inlineStr">
         <is>
-          <t>-1,63; 0,88</t>
+          <t>-1,87; 0,89</t>
         </is>
       </c>
       <c r="F33" s="2" t="inlineStr">
         <is>
-          <t>-5,3; -3,3</t>
+          <t>-5,34; -3,15</t>
         </is>
       </c>
       <c r="G33" s="2" t="inlineStr">
         <is>
-          <t>-0,81; 0,77</t>
+          <t>-0,68; 0,85</t>
         </is>
       </c>
       <c r="H33" s="2" t="inlineStr">
         <is>
-          <t>-3,36; -2,06</t>
+          <t>-3,26; -1,96</t>
         </is>
       </c>
     </row>
@@ -1807,32 +1807,32 @@
       </c>
       <c r="C35" s="2" t="inlineStr">
         <is>
-          <t>-8,07; 74,54</t>
+          <t>-11,05; 70,85</t>
         </is>
       </c>
       <c r="D35" s="2" t="inlineStr">
         <is>
-          <t>-69,15; -30,29</t>
+          <t>-69,95; -27,59</t>
         </is>
       </c>
       <c r="E35" s="2" t="inlineStr">
         <is>
-          <t>-19,29; 12,49</t>
+          <t>-21,45; 12,06</t>
         </is>
       </c>
       <c r="F35" s="2" t="inlineStr">
         <is>
-          <t>-62,81; -45,11</t>
+          <t>-63,85; -44,43</t>
         </is>
       </c>
       <c r="G35" s="2" t="inlineStr">
         <is>
-          <t>-14,77; 16,69</t>
+          <t>-12,77; 18,75</t>
         </is>
       </c>
       <c r="H35" s="2" t="inlineStr">
         <is>
-          <t>-62,65; -45,22</t>
+          <t>-61,9; -44,32</t>
         </is>
       </c>
     </row>
